--- a/products.xlsx
+++ b/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -56,10 +56,14 @@
     <t>folder_name</t>
   </si>
   <si>
-    <t>100pcs 3mm Square CCB Beads for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>Set of 100pcs 3mm square beads with rounded edges. Available in mixed colors, white, gold, rose gold, and bronze finishes. Perfect for jewelry making and crafts.</t>
+    <t>30-3000pcs 2-16mm Half White Beige Imitation Pearls</t>
+  </si>
+  <si>
+    <t>• Plastic material with pearl finish
+• 2-16mm sizes, packs from 30 to 3000pcs
+• Ideal for jewelry making, crafts, and decorations
+• Uniform size and color for professional results
+Add to cart today.</t>
   </si>
   <si>
     <t>Beads(珠子)</t>
@@ -71,40 +75,7 @@
     <t>Beads</t>
   </si>
   <si>
-    <t>FZ33-正方形弧角珠</t>
-  </si>
-  <si>
-    <t>10pcs Pink Acrylic Cat Paw Beads</t>
-  </si>
-  <si>
-    <t>Set of 10 cute pink acrylic cat paw beads, perfect for DIY jewelry and crafts. Lightweight and durable, these beads add a playful touch to any creation.</t>
-  </si>
-  <si>
-    <t>Dazhu03-3</t>
-  </si>
-  <si>
-    <t>300pcs White Orange Black 4mm AB Glass Flat Beads</t>
-  </si>
-  <si>
-    <t>Set of 300 flat AB finish beads in white, orange, and black. Size: 4mm. Perfect for jewelry making, crafts, and DIY projects.</t>
-  </si>
-  <si>
-    <t>FZ183</t>
-  </si>
-  <si>
-    <t>Synthetic Red Coral Stone Beads 4–12mm</t>
-  </si>
-  <si>
-    <t>High-quality synthetic red coral beads available in 4mm, 6mm, 8mm, 10mm, and 12mm sizes. This set of synthetic red coral stone beads includes five sizes:
-4mm (85pcs)
-6mm (62pcs)
-8mm (47pcs)
-10mm (37pcs)
-12mm (31pcs)
-Perfect for making bracelets, necklaces, earrings, and other DIY jewelry projects. Each bead features a smooth surface and vibrant red color, offering a natural stone look with consistent quality. Great for both beginners and experienced crafters.</t>
-  </si>
-  <si>
-    <t>ST500</t>
+    <t>FZ616-FZ517</t>
   </si>
 </sst>
 </file>
@@ -748,13 +719,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1102,18 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="2" max="2" width="66.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1146,7 +1109,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1155,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1167,97 +1130,10 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>534</v>
+        <v>3081</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>10003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>823</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>10004</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>3172</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:9">
-      <c r="A5">
-        <v>10005</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>5914</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -56,14 +56,12 @@
     <t>folder_name</t>
   </si>
   <si>
-    <t>30-3000pcs 2-16mm Half White Beige Imitation Pearls</t>
-  </si>
-  <si>
-    <t>• Plastic material with pearl finish
-• 2-16mm sizes, packs from 30 to 3000pcs
-• Ideal for jewelry making, crafts, and decorations
-• Uniform size and color for professional results
-Add to cart today.</t>
+    <t>100pcs 4mm Tube Beads Mixed Colors</t>
+  </si>
+  <si>
+    <t>['High-quality acrylic material with glossy finish', 'Each bead measures 4mm and comes in 100pcs per pack', 'Perfect for DIY jewelry keychains and crafts', 'Lightweight durable and vibrant colors for creative projects', 'Consistent size and smooth surface for easy stringing', 'Store in a dry place to maintain color and shine', 'Add to cart today']
+Available packs:
+4.4mm-100pcs</t>
   </si>
   <si>
     <t>Beads(珠子)</t>
@@ -75,7 +73,40 @@
     <t>Beads</t>
   </si>
   <si>
-    <t>FZ616-FZ517</t>
+    <t>FZ30</t>
+  </si>
+  <si>
+    <t>100pcs 6/8mm Rice Tube Beads White K</t>
+  </si>
+  <si>
+    <t>['Material: High-quality resin with smooth finish', 'Size: 3x6mm, weight: light, pack includes 100 pieces', 'Perfect for DIY jewelry, crafts, and decorations', 'Enhance creativity with versatile and stylish beads', 'Quality assured for durability and consistent sizing', 'Store in dry place to maintain bead quality', 'Easy to use with various stringing materials', 'Add to cart today']
+Available packs:
+6mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ31</t>
+  </si>
+  <si>
+    <t>100pcs 3mm Square Arc Beads Mixed Colors</t>
+  </si>
+  <si>
+    <t>['High-quality plastic with smooth glossy finish', 'Each bead measures 3mm square comes in 100pcs', 'Perfect for DIY jewelry keychains and crafts', 'Lightweight durable and easy to handle', 'Consistent size and color for uniform designs', 'Store in a dry place to maintain shine', 'Great for creative projects and gifts', 'Add to cart today']
+Available packs:
+3mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ33</t>
+  </si>
+  <si>
+    <t>100pcs 4mm Square Arc Beads Mixed Colors</t>
+  </si>
+  <si>
+    <t>['High-quality plastic with smooth glossy finish', 'Each bead measures 4mm square comes in 100pcs pack', 'Perfect for DIY jewelry keychains and crafts', 'Lightweight durable and easy to handle', 'Consistent size and color for professional results', 'Store in a dry place to maintain shine', 'Add to cart today']
+Available packs:
+4mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ34</t>
   </si>
 </sst>
 </file>
@@ -719,10 +750,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,13 +1104,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1109,7 +1143,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1130,10 +1164,97 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>3081</v>
+        <v>5552</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:9">
+      <c r="A3">
+        <v>10016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>5553</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>5555</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>10019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>5557</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
